--- a/src/main/webapp/template/hisOrder.xlsx
+++ b/src/main/webapp/template/hisOrder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="8460"/>
+    <workbookView windowWidth="20130" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,17 +92,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,6 +101,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,22 +130,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,28 +153,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,9 +198,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,39 +229,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,30 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,17 +460,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,8 +502,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,15 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,137 +562,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +712,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1036,13 +1039,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -1098,8 +1101,167 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="7"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/main/webapp/template/hisOrder.xlsx
+++ b/src/main/webapp/template/hisOrder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="8190"/>
+    <workbookView windowWidth="19890" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,50 +72,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,13 +122,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -151,11 +136,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,15 +159,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -191,36 +206,13 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,15 +220,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,7 +230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,103 +242,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,73 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,17 +424,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,8 +436,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,20 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +512,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,137 +541,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,19 +684,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,10 +1006,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1085,16 +1052,16 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -1102,166 +1069,148 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
